--- a/Others/assignments/assignments_sheet.xlsx
+++ b/Others/assignments/assignments_sheet.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Others/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB31A2B-D6D2-4445-898C-5FBF939F9B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C3A6B-969B-EC48-9F8C-6EBF146F2C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
+    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Student</t>
   </si>
@@ -231,6 +231,45 @@
   </si>
   <si>
     <t>unorganized script, missing a few answers</t>
+  </si>
+  <si>
+    <t>Notes on HM3</t>
+  </si>
+  <si>
+    <t>All good, but plots could have been polished a bit.</t>
+  </si>
+  <si>
+    <t>All good, nice plots</t>
+  </si>
+  <si>
+    <t>all good, nice plots</t>
+  </si>
+  <si>
+    <t>minimal plots with a one mistake; submitted an rmd.</t>
+  </si>
+  <si>
+    <t>no pdf, one plot missing, but besides that all good..</t>
+  </si>
+  <si>
+    <t>all good</t>
+  </si>
+  <si>
+    <t>all plots there, pdf, but did not clean up the messagesss</t>
+  </si>
+  <si>
+    <t>all there, nice plots, but did not clean up the pdf.</t>
+  </si>
+  <si>
+    <t>All correct, full explanations</t>
+  </si>
+  <si>
+    <t>all correct, real improvement in relation to the previous ones!</t>
+  </si>
+  <si>
+    <t>all rcorrect</t>
+  </si>
+  <si>
+    <t>few mistakes, but pdf knits</t>
   </si>
 </sst>
 </file>
@@ -623,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCFC498-9AAB-094A-B31F-54AAE91DF5DE}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,13 +678,13 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="10" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,13 +716,16 @@
         <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,8 +750,17 @@
       <c r="H2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5.75</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,8 +776,17 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +808,17 @@
       <c r="H4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>5.75</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +840,17 @@
       <c r="H5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>5.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,8 +872,17 @@
       <c r="H6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +907,17 @@
       <c r="H7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>5.75</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +942,17 @@
       <c r="H8" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +977,17 @@
       <c r="H9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,8 +1012,17 @@
       <c r="H10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +1044,17 @@
       <c r="H11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,8 +1073,11 @@
       <c r="H12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -964,8 +1099,17 @@
       <c r="H13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>5.75</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -987,8 +1131,17 @@
       <c r="H14" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1166,17 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1036,8 +1198,17 @@
       <c r="H16" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,8 +1233,17 @@
       <c r="H17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>5.25</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1088,8 +1268,17 @@
       <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>5.5</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1111,8 +1300,17 @@
       <c r="H19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1134,8 +1332,17 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1191,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1427,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{3BCFC498-9AAB-094A-B31F-54AAE91DF5DE}"/>
+  <autoFilter ref="A1:M1" xr:uid="{3BCFC498-9AAB-094A-B31F-54AAE91DF5DE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Others/assignments/assignments_sheet.xlsx
+++ b/Others/assignments/assignments_sheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Others/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C3A6B-969B-EC48-9F8C-6EBF146F2C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DB00F-57F4-CB49-8D14-51527DD310E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Student</t>
   </si>
@@ -270,6 +271,24 @@
   </si>
   <si>
     <t>few mistakes, but pdf knits</t>
+  </si>
+  <si>
+    <t>Homework</t>
+  </si>
+  <si>
+    <t>participation</t>
+  </si>
+  <si>
+    <t>final assignment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>calculated from single submission</t>
+  </si>
+  <si>
+    <t>deduced .5 from homework for for not submitting one homework.</t>
   </si>
 </sst>
 </file>
@@ -293,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -347,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCFC498-9AAB-094A-B31F-54AAE91DF5DE}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,12 +707,13 @@
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.83203125" customWidth="1"/>
-    <col min="10" max="11" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="55.83203125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,7 +754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,8 +788,12 @@
       <c r="K2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>(I2+F2+C2)/3</f>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -785,8 +818,12 @@
       <c r="K3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f t="shared" ref="N3:N26" si="0">(I3+F3+C3)/3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,8 +854,12 @@
       <c r="K4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,8 +890,12 @@
       <c r="K5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,8 +926,12 @@
       <c r="K6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +965,12 @@
       <c r="K7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +1004,12 @@
       <c r="K8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,8 +1043,12 @@
       <c r="K9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,8 +1082,12 @@
       <c r="K10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1118,12 @@
       <c r="K11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,8 +1145,12 @@
       <c r="J12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,8 +1181,12 @@
       <c r="K13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1140,8 +1217,12 @@
       <c r="K14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1256,12 @@
       <c r="K15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1207,8 +1292,12 @@
       <c r="K16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1242,8 +1331,12 @@
       <c r="K17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,8 +1370,12 @@
       <c r="K18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1309,8 +1406,12 @@
       <c r="K19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1341,8 +1442,12 @@
       <c r="K20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,8 +1460,12 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1369,8 +1478,12 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1383,8 +1496,12 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1397,8 +1514,12 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1411,8 +1532,12 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1423,6 +1548,10 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,4 +1559,303 @@
   <autoFilter ref="A1:M1" xr:uid="{3BCFC498-9AAB-094A-B31F-54AAE91DF5DE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58734348-4ED2-1743-B9D3-0E0E58A6E0F2}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.8</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.75</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5.9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.9</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5.9</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.75</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Others/assignments/assignments_sheet.xlsx
+++ b/Others/assignments/assignments_sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Others/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DB00F-57F4-CB49-8D14-51527DD310E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAE2C2-B73D-4A49-8B27-1E64FC89027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" activeTab="2" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Student</t>
   </si>
@@ -285,10 +286,49 @@
     <t>comment</t>
   </si>
   <si>
-    <t>calculated from single submission</t>
-  </si>
-  <si>
-    <t>deduced .5 from homework for for not submitting one homework.</t>
+    <t>Class average</t>
+  </si>
+  <si>
+    <t>did not submit one homework</t>
+  </si>
+  <si>
+    <t>calculated from single submission.</t>
+  </si>
+  <si>
+    <t>inspecting</t>
+  </si>
+  <si>
+    <t>missing data</t>
+  </si>
+  <si>
+    <t>normalizing</t>
+  </si>
+  <si>
+    <t>top emitters</t>
+  </si>
+  <si>
+    <t>emissions in time</t>
+  </si>
+  <si>
+    <t>emissions, growth and pop</t>
+  </si>
+  <si>
+    <t>urban pop</t>
+  </si>
+  <si>
+    <t>top emitters, revisited</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Knitting to pdf</t>
+  </si>
+  <si>
+    <t>Tidy + join</t>
   </si>
 </sst>
 </file>
@@ -327,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -373,8 +413,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +734,8 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58734348-4ED2-1743-B9D3-0E0E58A6E0F2}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,16 +1623,16 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1606,12 +1647,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1719,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1799,60 +1840,128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <f>AVERAGE(B2:B19)</f>
+        <v>5.7444444444444445</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C19)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDC3AA-E868-4242-BBFC-47D36EEE1276}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Others/assignments/assignments_sheet.xlsx
+++ b/Others/assignments/assignments_sheet.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/Fundamentals_of_R_IHEID2022/Others/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAE2C2-B73D-4A49-8B27-1E64FC89027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCC06F-2FF7-334A-8F67-96C115955509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" activeTab="2" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="29920" windowHeight="17140" activeTab="2" xr2:uid="{F18C4139-FD07-6E4A-A40C-D8602D7A0A6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Homework" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Assignment" sheetId="3" r:id="rId2"/>
+    <sheet name="Final Grade" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Homework!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>Student</t>
   </si>
@@ -329,6 +329,195 @@
   </si>
   <si>
     <t>Tidy + join</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>better logical test</t>
+  </si>
+  <si>
+    <t>plot a (smooth and dots in the same color; scales make interpretation harder)</t>
+  </si>
+  <si>
+    <t>plot b (missing a line and scales)</t>
+  </si>
+  <si>
+    <t>wrong number of countries</t>
+  </si>
+  <si>
+    <t>drop_na without assigning</t>
+  </si>
+  <si>
+    <t>no rmd, codes on report, did not remove default example from rmd file, setup of chunks are wrong as no outputs are appearing</t>
+  </si>
+  <si>
+    <t>question c is wrong</t>
+  </si>
+  <si>
+    <t>scales and missing observations</t>
+  </si>
+  <si>
+    <t>plot a wrong</t>
+  </si>
+  <si>
+    <t>points for countries</t>
+  </si>
+  <si>
+    <t>intuition was correct, implementarion was wrong</t>
+  </si>
+  <si>
+    <t>left warnings on knitted document</t>
+  </si>
+  <si>
+    <t>plot a wrong choice (line instead of points)</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>country wrong</t>
+  </si>
+  <si>
+    <t>did not log, redundant info in plot</t>
+  </si>
+  <si>
+    <t>correct plots, but conceptually wrong to take mean</t>
+  </si>
+  <si>
+    <t>no interpretation or answer</t>
+  </si>
+  <si>
+    <t>legends and no mean</t>
+  </si>
+  <si>
+    <t>should add points in a</t>
+  </si>
+  <si>
+    <t>wrong conceptual approach in</t>
+  </si>
+  <si>
+    <t>only rmd</t>
+  </si>
+  <si>
+    <t>c is wrong</t>
+  </si>
+  <si>
+    <t>a does not run</t>
+  </si>
+  <si>
+    <t>no log, scipen</t>
+  </si>
+  <si>
+    <t>no points, no facets</t>
+  </si>
+  <si>
+    <t>no rmd</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>inner</t>
+  </si>
+  <si>
+    <t>bad plot choice for a</t>
+  </si>
+  <si>
+    <t>no dots</t>
+  </si>
+  <si>
+    <t>echo false</t>
+  </si>
+  <si>
+    <t>wrong countries</t>
+  </si>
+  <si>
+    <t>wrong a</t>
+  </si>
+  <si>
+    <t>a is a bit dirty</t>
+  </si>
+  <si>
+    <t>no line</t>
+  </si>
+  <si>
+    <t>no reorder of bars</t>
+  </si>
+  <si>
+    <t>missing c</t>
+  </si>
+  <si>
+    <t>mean and bad choice</t>
+  </si>
+  <si>
+    <t>bad choice, and mean</t>
+  </si>
+  <si>
+    <t>wrong plot, no facets</t>
+  </si>
+  <si>
+    <t>bad choice</t>
+  </si>
+  <si>
+    <t>color continuous</t>
+  </si>
+  <si>
+    <t>bad choice for a</t>
+  </si>
+  <si>
+    <t>no points</t>
+  </si>
+  <si>
+    <t>a is wrong</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>plot a could be improved</t>
+  </si>
+  <si>
+    <t>answered a different question</t>
+  </si>
+  <si>
+    <t>no pdf</t>
+  </si>
+  <si>
+    <t>a missing dots, b does not run</t>
+  </si>
+  <si>
+    <t>intuition is correct, wrong implementation</t>
+  </si>
+  <si>
+    <t>wrong b and c</t>
+  </si>
+  <si>
+    <t>scales wrong</t>
+  </si>
+  <si>
+    <t>conceptually okay, but wrong means</t>
+  </si>
+  <si>
+    <t>sum instead of mean, breaks stop years.</t>
+  </si>
+  <si>
+    <t>missing country</t>
+  </si>
+  <si>
+    <t>scipen, and plot choice for a</t>
+  </si>
+  <si>
+    <t>no log</t>
+  </si>
+  <si>
+    <t>missing countries</t>
+  </si>
+  <si>
+    <t>Final grade</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
@@ -352,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -417,6 +612,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,11 +1808,1131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58734348-4ED2-1743-B9D3-0E0E58A6E0F2}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDC3AA-E868-4242-BBFC-47D36EEE1276}">
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI14" sqref="AI14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>7.5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>7.5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2">
+        <v>7.5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2">
+        <v>7.5</v>
+      </c>
+      <c r="U2">
+        <v>7.5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AC2">
+        <v>15</v>
+      </c>
+      <c r="AE2">
+        <v>15</v>
+      </c>
+      <c r="AG2">
+        <v>7.5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI2">
+        <v>15</v>
+      </c>
+      <c r="AK2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AC3">
+        <v>15</v>
+      </c>
+      <c r="AE3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>15</v>
+      </c>
+      <c r="AI3">
+        <v>15</v>
+      </c>
+      <c r="AK3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>2.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>2.5</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE4">
+        <v>2.5</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>2.5</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK4">
+        <v>2.5</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>6.66</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>6.66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7">
+        <v>6.66</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>6.66</v>
+      </c>
+      <c r="T7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>6.66</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7">
+        <v>6.66</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>6.66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>6.66</v>
+      </c>
+      <c r="R8" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>3.33</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG8">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <v>7</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9">
+        <v>6.66</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI9">
+        <v>8</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>137</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE10">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11">
+        <v>7.5</v>
+      </c>
+      <c r="Q11">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11">
+        <v>7.5</v>
+      </c>
+      <c r="U11">
+        <v>14</v>
+      </c>
+      <c r="V11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>14</v>
+      </c>
+      <c r="AC11">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:AE13" si="0">SUM(C2:C12)</f>
+        <v>68.66</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>68.819999999999993</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>76.16</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>100.16</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>64.16</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="AA13">
+        <f>SUM(AA2:AA12)</f>
+        <v>102.16</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>71.83</v>
+      </c>
+      <c r="AG13">
+        <f>SUM(AG2:AG12)</f>
+        <v>71.16</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ref="AH13:AI13" si="1">SUM(AH2:AH12)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="1"/>
+        <v>75.16</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" ref="AJ13" si="2">SUM(AJ2:AJ12)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" ref="AK13" si="3">SUM(AK2:AK12)</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>4.75</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>5.25</v>
+      </c>
+      <c r="I14">
+        <v>5.5</v>
+      </c>
+      <c r="K14">
+        <v>5.25</v>
+      </c>
+      <c r="M14">
+        <v>4.75</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>4.75</v>
+      </c>
+      <c r="U14">
+        <v>5.5</v>
+      </c>
+      <c r="Y14">
+        <v>5.75</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>5.75</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+      <c r="AI14">
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="K15" s="11">
+        <v>5</v>
+      </c>
+      <c r="O15" s="11">
+        <v>4.75</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>4.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58734348-4ED2-1743-B9D3-0E0E58A6E0F2}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,10 +2941,11 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="11"/>
+    <col min="7" max="7" width="40.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1632,11 +2958,17 @@
       <c r="D1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1646,8 +2978,18 @@
       <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>4.75</v>
+      </c>
+      <c r="E2">
+        <f>(B2*0.3+C2*0.2+D2*0.5)</f>
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1657,11 +2999,21 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">(B3*0.3+C3*0.2+D3*0.5)</f>
+        <v>5.4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1671,8 +3023,18 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5.25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.5950000000000006</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +3044,18 @@
       <c r="C5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.69</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1693,8 +3065,18 @@
       <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1704,8 +3086,18 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4.75</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1715,8 +3107,18 @@
       <c r="C8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>4.75</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1726,8 +3128,18 @@
       <c r="C9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.9700000000000006</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1737,8 +3149,18 @@
       <c r="C10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4.75</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.2549999999999999</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1748,22 +3170,42 @@
       <c r="C11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D11">
+        <v>5.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1773,8 +3215,18 @@
       <c r="C13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5.75</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.8450000000000006</v>
+      </c>
+      <c r="F13" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1784,8 +3236,18 @@
       <c r="C14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1795,8 +3257,18 @@
       <c r="C15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>5.75</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.8450000000000006</v>
+      </c>
+      <c r="F15" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1806,8 +3278,18 @@
       <c r="C16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,8 +3299,18 @@
       <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1828,8 +3320,18 @@
       <c r="C18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1839,8 +3341,18 @@
       <c r="C19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5.75</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+      <c r="F19" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -1852,116 +3364,17 @@
         <f>AVERAGE(C2:C19)</f>
         <v>6</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDC3AA-E868-4242-BBFC-47D36EEE1276}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="D20">
+        <f>AVERAGE(D2:D19)</f>
+        <v>5.3611111111111107</v>
+      </c>
+      <c r="E20">
+        <f>(B20*0.3+C20*0.2+D20*0.5)</f>
+        <v>5.6038888888888891</v>
+      </c>
+      <c r="F20" s="11">
+        <f>(C20*0.3+D20*0.2+E20*0.5)</f>
+        <v>5.6741666666666664</v>
       </c>
     </row>
   </sheetData>
